--- a/data-raw/excel/scieries2020.xlsx
+++ b/data-raw/excel/scieries2020.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>%</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Merrains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +423,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="B1">
         <v>2020</v>
       </c>

--- a/data-raw/excel/scieries2020.xlsx
+++ b/data-raw/excel/scieries2020.xlsx
@@ -2,29 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian.steunou\Documents\agreste\data-raw\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>2020</t>
+  </si>
   <si>
     <t>%</t>
   </si>
@@ -41,7 +39,7 @@
     <t>Sciages</t>
   </si>
   <si>
-    <t xml:space="preserve"> Essences tempérées</t>
+    <t>Essences tempérées</t>
   </si>
   <si>
     <t>Feuillus</t>
@@ -89,7 +87,7 @@
     <t>Merrains</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -99,7 +97,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,9 +123,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -156,45 +153,41 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -223,13 +216,9 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -267,142 +256,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -410,38 +423,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>8175</v>
@@ -449,303 +457,304 @@
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>-1.7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>7982</v>
       </c>
       <c r="C3">
-        <v>97.639143730886843</v>
-      </c>
-      <c r="D3" s="1">
+        <v>97.639143730000001</v>
+      </c>
+      <c r="D3">
         <v>-1.5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>7971</v>
       </c>
       <c r="C4">
-        <v>97.504587155963307</v>
-      </c>
-      <c r="D4" s="1">
+        <v>97.50458716</v>
+      </c>
+      <c r="D4">
         <v>-1.5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1181</v>
       </c>
       <c r="C5">
-        <v>14.446483180428135</v>
-      </c>
-      <c r="D5" s="1">
+        <v>14.44648318</v>
+      </c>
+      <c r="D5">
         <v>-11.1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-0.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>582</v>
       </c>
       <c r="C6">
-        <v>7.1192660550458715</v>
-      </c>
-      <c r="D6" s="1">
+        <v>7.1192660549999998</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>288</v>
       </c>
       <c r="C7">
-        <v>3.522935779816514</v>
-      </c>
-      <c r="D7" s="1">
+        <v>3.5229357800000001</v>
+      </c>
+      <c r="D7">
         <v>-29.2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>-0.3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>196</v>
       </c>
       <c r="C8">
-        <v>2.3975535168195719</v>
-      </c>
-      <c r="D8" s="1">
+        <v>2.397553517</v>
+      </c>
+      <c r="D8">
         <v>-11.3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>115</v>
       </c>
       <c r="C9">
-        <v>1.4067278287461773</v>
-      </c>
-      <c r="D9" s="1">
+        <v>1.406727829</v>
+      </c>
+      <c r="D9">
         <v>-5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>-1.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>6790</v>
       </c>
       <c r="C10">
-        <v>83.058103975535175</v>
-      </c>
-      <c r="D10" s="1">
+        <v>83.058103979999999</v>
+      </c>
+      <c r="D10">
         <v>0.4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>3771</v>
       </c>
       <c r="C11">
-        <v>46.128440366972477</v>
-      </c>
-      <c r="D11" s="1">
+        <v>46.12844037</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1417</v>
       </c>
       <c r="C12">
-        <v>17.333333333333336</v>
-      </c>
-      <c r="D12" s="1">
+        <v>17.333333329999999</v>
+      </c>
+      <c r="D12">
         <v>3.7</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>10.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1084</v>
       </c>
       <c r="C13">
-        <v>13.25993883792049</v>
-      </c>
-      <c r="D13" s="1">
+        <v>13.25993884</v>
+      </c>
+      <c r="D13">
         <v>-2.7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>-4.7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>285</v>
       </c>
       <c r="C14">
-        <v>3.4862385321100922</v>
-      </c>
-      <c r="D14" s="1">
+        <v>3.4862385319999998</v>
+      </c>
+      <c r="D14">
         <v>-17.899999999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>-3.7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>233</v>
       </c>
       <c r="C15">
-        <v>2.8501529051987764</v>
-      </c>
-      <c r="D15" s="1">
+        <v>2.8501529049999998</v>
+      </c>
+      <c r="D15">
         <v>17.100000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>-2.7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16">
-        <v>0.13455657492299999</v>
-      </c>
-      <c r="D16" s="1">
+        <v>0.13455657500000001</v>
+      </c>
+      <c r="D16">
         <v>-26.7</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>-14.2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>193</v>
       </c>
       <c r="C17">
-        <v>2.3608562691131501</v>
-      </c>
-      <c r="D17" s="1">
+        <v>2.3608562690000001</v>
+      </c>
+      <c r="D17">
         <v>-9</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>-2.7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>118</v>
       </c>
       <c r="C18">
-        <v>1.4434250764525993</v>
-      </c>
-      <c r="D18" s="1">
+        <v>1.443425076</v>
+      </c>
+      <c r="D18">
         <v>-8.5</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>-3.3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>75</v>
       </c>
       <c r="C19">
-        <v>0.91743119265999995</v>
-      </c>
-      <c r="D19" s="1">
+        <v>0.91743119299999998</v>
+      </c>
+      <c r="D19">
         <v>-9.6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>-1.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>